--- a/src/test/resources/TestData/AlarmRule/AlarmInfo.xlsx
+++ b/src/test/resources/TestData/AlarmRule/AlarmInfo.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210"/>
+    <workbookView windowWidth="19095" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NormalRule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EditRule" sheetId="2" r:id="rId2"/>
+    <sheet name="DeleteRule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>名称</t>
   </si>
@@ -36,16 +36,34 @@
     <t>sn号</t>
   </si>
   <si>
+    <t>告警类型</t>
+  </si>
+  <si>
+    <t>告警类型二级分类</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>时间类型</t>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>阈值</t>
+  </si>
+  <si>
     <t>alarm1</t>
   </si>
   <si>
     <t>cloudtest1</t>
   </si>
   <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>邮箱</t>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>发送邮件</t>
   </si>
   <si>
     <t>we just do it</t>
@@ -54,6 +72,18 @@
     <t>1103518090000331</t>
   </si>
   <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>内存利用率</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>高于</t>
+  </si>
+  <si>
     <t>alarm2</t>
   </si>
   <si>
@@ -63,26 +93,39 @@
     <t>严重</t>
   </si>
   <si>
-    <t>短信</t>
+    <t>发送短信</t>
   </si>
   <si>
     <t>we can fly</t>
   </si>
   <si>
     <t>2307440130001328</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>流量过界</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>alarm3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -251,6 +287,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,6 +335,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,6 +389,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,6 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,12 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,24 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,153 +583,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1043,20 +1082,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,45 +1115,137 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1126,14 +1258,140 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1143,14 +1401,91 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
